--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7907,6 +7907,32 @@
       </c>
       <c r="E322" t="inlineStr"/>
     </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>21992193853</v>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>GOLDEN29</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>21992193853</v>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>21966652864</v>
+        <v>21992193853</v>
       </c>
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>21966652864</v>
+        <v>21992193853</v>
       </c>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr"/>
@@ -7906,32 +7906,6 @@
         </is>
       </c>
       <c r="E322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>21992193853</v>
-      </c>
-      <c r="B323" t="inlineStr"/>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>GOLDEN29</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>21992193853</v>
-      </c>
-      <c r="B324" t="inlineStr"/>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>GOLDEN26</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
